--- a/HH_Projects/02_Macro_Risk/Data_Files/Test_Files/Revisions_Daily.xlsx
+++ b/HH_Projects/02_Macro_Risk/Data_Files/Test_Files/Revisions_Daily.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="84">
   <si>
     <t>SP</t>
   </si>
@@ -629,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D594"/>
+  <dimension ref="A1:D620"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -959,13 +959,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>40907</v>
+        <v>43830</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -973,11 +973,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>31777</v>
-      </c>
-      <c r="B26" s="1"/>
+        <v>43861</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -985,25 +987,27 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>32812</v>
-      </c>
-      <c r="B27" s="1"/>
+        <v>43951</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>36311</v>
+        <v>40907</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1011,11 +1015,9 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>37680</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>31777</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,13 +1027,11 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>40877</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>32812</v>
+      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1039,13 +1039,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>40907</v>
+        <v>36311</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1053,13 +1053,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>40939</v>
+        <v>37680</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1067,11 +1067,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>36677</v>
-      </c>
-      <c r="B33" s="1"/>
+        <v>40877</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1079,11 +1081,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>37225</v>
-      </c>
-      <c r="B34" s="1"/>
+        <v>40907</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1091,11 +1095,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>37560</v>
-      </c>
-      <c r="B35" s="1"/>
+        <v>40939</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1103,7 +1109,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>37771</v>
+        <v>36677</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
@@ -1115,19 +1121,19 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>38168</v>
+        <v>37225</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>38656</v>
+        <v>37560</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
@@ -1139,7 +1145,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>39021</v>
+        <v>37771</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
@@ -1151,25 +1157,21 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>39752</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>38168</v>
+      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>41820</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>38656</v>
+      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
         <v>11</v>
       </c>
@@ -1179,21 +1181,19 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>42004</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>39021</v>
+      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43098</v>
+        <v>39752</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>5</v>
@@ -1202,16 +1202,18 @@
         <v>11</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>38835</v>
-      </c>
-      <c r="B44" s="1"/>
+        <v>41820</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C44" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1219,13 +1221,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>40602</v>
+        <v>42004</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1233,13 +1235,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>40633</v>
+        <v>43098</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1247,13 +1249,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>40753</v>
+        <v>43798</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1261,11 +1263,9 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>42062</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>38835</v>
+      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
         <v>12</v>
       </c>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>42429</v>
+        <v>40602</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>5</v>
@@ -1284,12 +1284,12 @@
         <v>12</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>42734</v>
+        <v>40633</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>5</v>
@@ -1298,12 +1298,12 @@
         <v>12</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43098</v>
+        <v>40753</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>5</v>
@@ -1317,11 +1317,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>34911</v>
-      </c>
-      <c r="B52" s="1"/>
+        <v>42062</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1329,25 +1331,27 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>35550</v>
-      </c>
-      <c r="B53" s="1"/>
+        <v>42429</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>36189</v>
+        <v>42734</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1355,13 +1359,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>36922</v>
+        <v>43098</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1369,11 +1373,9 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>37468</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>34911</v>
+      </c>
+      <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
         <v>13</v>
       </c>
@@ -1383,11 +1385,9 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>38260</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>35550</v>
+      </c>
+      <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
         <v>13</v>
       </c>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>38776</v>
+        <v>36189</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>4</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>39233</v>
+        <v>36922</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>4</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>39568</v>
+        <v>37468</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>4</v>
@@ -1434,12 +1434,12 @@
         <v>13</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>40877</v>
+        <v>38260</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>4</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>41729</v>
+        <v>38776</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>4</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>42277</v>
+        <v>39233</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>4</v>
@@ -1476,12 +1476,12 @@
         <v>13</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>42429</v>
+        <v>39568</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>4</v>
@@ -1490,12 +1490,12 @@
         <v>13</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>42886</v>
+        <v>40877</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>4</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>42978</v>
+        <v>41729</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>4</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43131</v>
+        <v>42277</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>4</v>
@@ -1532,18 +1532,18 @@
         <v>13</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>40235</v>
+        <v>42429</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -1551,11 +1551,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>33907</v>
-      </c>
-      <c r="B69" s="1"/>
+        <v>42886</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C69" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -1563,13 +1565,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>37468</v>
+        <v>42978</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1577,11 +1579,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B71" s="1"/>
+        <v>43131</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C71" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1589,11 +1593,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>34911</v>
-      </c>
-      <c r="B72" s="1"/>
+        <v>40235</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C72" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1601,13 +1607,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>38016</v>
+        <v>43921</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1615,13 +1621,11 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>39447</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>33907</v>
+      </c>
+      <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -1629,13 +1633,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>41274</v>
+        <v>37468</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -1643,11 +1647,9 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>42947</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>34334</v>
+      </c>
+      <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
         <v>16</v>
       </c>
@@ -1657,11 +1659,11 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>35580</v>
+        <v>34911</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -1669,13 +1671,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>36371</v>
+        <v>38016</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -1683,13 +1685,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>38044</v>
+        <v>39447</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -1697,13 +1699,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>38562</v>
+        <v>41274</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -1711,13 +1713,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>38929</v>
+        <v>42947</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -1725,11 +1727,9 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>39660</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>35580</v>
+      </c>
+      <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
         <v>17</v>
       </c>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>40543</v>
+        <v>36371</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>4</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43007</v>
+        <v>38044</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>4</v>
@@ -1767,27 +1767,27 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>36433</v>
+        <v>38562</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>36677</v>
+        <v>38929</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -1795,13 +1795,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>39171</v>
+        <v>39660</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -1809,27 +1809,27 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>40633</v>
+        <v>40543</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>41394</v>
+        <v>43007</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43098</v>
+        <v>36433</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>4</v>
@@ -1846,16 +1846,18 @@
         <v>18</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>39262</v>
-      </c>
-      <c r="B91" s="1"/>
+        <v>36677</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C91" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -1863,13 +1865,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>41362</v>
+        <v>39171</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -1877,27 +1879,27 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>42429</v>
+        <v>40633</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43465</v>
+        <v>41394</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -1905,11 +1907,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>36129</v>
-      </c>
-      <c r="B95" s="1"/>
+        <v>43098</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C95" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -1917,11 +1921,11 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>36525</v>
+        <v>39262</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -1929,13 +1933,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>39568</v>
+        <v>41362</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -1943,13 +1947,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>40389</v>
+        <v>42429</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -1957,13 +1961,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>40633</v>
+        <v>43465</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -1971,13 +1975,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>40753</v>
+        <v>44012</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -1985,11 +1989,9 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>40786</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>36129</v>
+      </c>
+      <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
         <v>20</v>
       </c>
@@ -1999,11 +2001,9 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>40847</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>36525</v>
+      </c>
+      <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
         <v>20</v>
       </c>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>40939</v>
+        <v>39568</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>5</v>
@@ -2022,12 +2022,12 @@
         <v>20</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>41152</v>
+        <v>40389</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>5</v>
@@ -2036,12 +2036,12 @@
         <v>20</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>41213</v>
+        <v>40633</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>5</v>
@@ -2050,12 +2050,12 @@
         <v>20</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>41274</v>
+        <v>40753</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>5</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>41362</v>
+        <v>40786</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>5</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>41486</v>
+        <v>40847</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>5</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>41607</v>
+        <v>40939</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>5</v>
@@ -2106,12 +2106,12 @@
         <v>20</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>41759</v>
+        <v>41152</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>5</v>
@@ -2120,12 +2120,12 @@
         <v>20</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>41943</v>
+        <v>41213</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>5</v>
@@ -2134,12 +2134,12 @@
         <v>20</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>42277</v>
+        <v>41274</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>5</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>42643</v>
+        <v>41362</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>5</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>42825</v>
+        <v>41486</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>5</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43371</v>
+        <v>41607</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>5</v>
@@ -2190,16 +2190,18 @@
         <v>20</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>34544</v>
-      </c>
-      <c r="B116" s="1"/>
+        <v>41759</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C116" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -2207,25 +2209,27 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>35033</v>
-      </c>
-      <c r="B117" s="1"/>
+        <v>41943</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C117" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>36129</v>
+        <v>42277</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -2233,13 +2237,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>39386</v>
+        <v>42643</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -2247,41 +2251,39 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>40786</v>
+        <v>42825</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>40907</v>
+        <v>43371</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>40939</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>34544</v>
+      </c>
+      <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -2289,23 +2291,25 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>30347</v>
+        <v>35033</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>31867</v>
-      </c>
-      <c r="B124" s="1"/>
+        <v>36129</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C124" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -2313,11 +2317,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>33542</v>
-      </c>
-      <c r="B125" s="1"/>
+        <v>39386</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C125" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -2325,25 +2331,27 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>36950</v>
+        <v>40786</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>37011</v>
-      </c>
-      <c r="B127" s="1"/>
+        <v>40907</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C127" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -2351,11 +2359,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>38383</v>
-      </c>
-      <c r="B128" s="1"/>
+        <v>40939</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C128" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -2363,11 +2373,11 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>38471</v>
+        <v>30347</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -2375,11 +2385,11 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>38595</v>
+        <v>31867</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -2387,11 +2397,11 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>38656</v>
+        <v>33542</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -2399,13 +2409,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>39113</v>
+        <v>36950</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2413,67 +2423,57 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>39416</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>37011</v>
+      </c>
+      <c r="B133" s="1"/>
       <c r="C133" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>39780</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>38383</v>
+      </c>
+      <c r="B134" s="1"/>
       <c r="C134" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D134">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>39813</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>38471</v>
+      </c>
+      <c r="B135" s="1"/>
       <c r="C135" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>39994</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>38595</v>
+      </c>
+      <c r="B136" s="1"/>
       <c r="C136" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>40421</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>38656</v>
+      </c>
+      <c r="B137" s="1"/>
       <c r="C137" s="1" t="s">
         <v>24</v>
       </c>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>41089</v>
+        <v>39113</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>5</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>41880</v>
+        <v>39416</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>5</v>
@@ -2506,12 +2506,12 @@
         <v>24</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>42247</v>
+        <v>39780</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>5</v>
@@ -2520,12 +2520,12 @@
         <v>24</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>42916</v>
+        <v>39813</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>5</v>
@@ -2534,28 +2534,32 @@
         <v>24</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>37225</v>
-      </c>
-      <c r="B142" s="1"/>
+        <v>39994</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C142" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>38321</v>
-      </c>
-      <c r="B143" s="1"/>
+        <v>40421</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C143" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -2563,13 +2567,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>39871</v>
+        <v>41089</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -2577,13 +2581,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>39933</v>
+        <v>41880</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -2591,13 +2595,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>40056</v>
+        <v>42247</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -2605,13 +2609,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>40359</v>
+        <v>42916</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -2619,39 +2623,37 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>40786</v>
+        <v>43921</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>40907</v>
+        <v>43951</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>40939</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>37225</v>
+      </c>
+      <c r="B150" s="1"/>
       <c r="C150" s="1" t="s">
         <v>25</v>
       </c>
@@ -2661,41 +2663,39 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>37407</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>38321</v>
+      </c>
+      <c r="B151" s="1"/>
       <c r="C151" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>40602</v>
+        <v>39871</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>40633</v>
+        <v>39933</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -2703,13 +2703,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>40847</v>
+        <v>40056</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -2717,13 +2717,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>40877</v>
+        <v>40359</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -2731,27 +2731,27 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>40968</v>
+        <v>40786</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>41089</v>
+        <v>40907</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>41152</v>
+        <v>40939</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>41274</v>
+        <v>37407</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>4</v>
@@ -2782,12 +2782,12 @@
         <v>26</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>41425</v>
+        <v>40602</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>4</v>
@@ -2796,12 +2796,12 @@
         <v>26</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>41607</v>
+        <v>40633</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>4</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43251</v>
+        <v>40847</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>4</v>
@@ -2829,13 +2829,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>36250</v>
+        <v>40877</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -2843,13 +2843,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>38352</v>
+        <v>40968</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -2857,13 +2857,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>39843</v>
+        <v>41089</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -2871,13 +2871,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>40298</v>
+        <v>41152</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -2885,13 +2885,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>40847</v>
+        <v>41274</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -2899,13 +2899,13 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>40907</v>
+        <v>41425</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -2913,13 +2913,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>40939</v>
+        <v>41607</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -2927,21 +2927,21 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>41029</v>
+        <v>43251</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>41213</v>
+        <v>36250</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>6</v>
@@ -2950,12 +2950,12 @@
         <v>27</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>41789</v>
+        <v>38352</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>6</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>42307</v>
+        <v>39843</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>6</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43189</v>
+        <v>40298</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>6</v>
@@ -2997,11 +2997,13 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>33694</v>
-      </c>
-      <c r="B175" s="1"/>
+        <v>40847</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C175" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -3009,25 +3011,27 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>34059</v>
-      </c>
-      <c r="B176" s="1"/>
+        <v>40907</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C176" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>35430</v>
+        <v>40939</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -3035,41 +3039,41 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>36433</v>
+        <v>41029</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>37315</v>
+        <v>41213</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>40907</v>
+        <v>41789</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -3077,13 +3081,13 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>40939</v>
+        <v>42307</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -3091,13 +3095,13 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>41943</v>
+        <v>43189</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -3105,13 +3109,13 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>40907</v>
+        <v>43738</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -3119,13 +3123,11 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>41607</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>33694</v>
+      </c>
+      <c r="B184" s="1"/>
       <c r="C184" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -3133,13 +3135,11 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>42551</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>34059</v>
+      </c>
+      <c r="B185" s="1"/>
       <c r="C185" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D185">
         <v>2</v>
@@ -3147,13 +3147,13 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>40421</v>
+        <v>35430</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -3161,13 +3161,13 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>41943</v>
+        <v>36433</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -3175,13 +3175,13 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43371</v>
+        <v>37315</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -3189,13 +3189,13 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>36129</v>
+        <v>40907</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -3203,27 +3203,27 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>36494</v>
+        <v>40939</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>36980</v>
+        <v>41943</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -3231,13 +3231,13 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>37802</v>
+        <v>40907</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -3245,13 +3245,13 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>38321</v>
+        <v>41607</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -3259,41 +3259,41 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>39843</v>
+        <v>42551</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>40178</v>
+        <v>40421</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>40268</v>
+        <v>41943</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -3301,24 +3301,24 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>40298</v>
+        <v>43371</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D197">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>40543</v>
+        <v>36129</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>32</v>
@@ -3329,10 +3329,10 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>40633</v>
+        <v>36494</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>32</v>
@@ -3343,21 +3343,21 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>40694</v>
+        <v>36980</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>40724</v>
+        <v>37802</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>6</v>
@@ -3366,12 +3366,12 @@
         <v>32</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>40753</v>
+        <v>38321</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>6</v>
@@ -3380,12 +3380,12 @@
         <v>32</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>40968</v>
+        <v>39843</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>6</v>
@@ -3394,12 +3394,12 @@
         <v>32</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>41060</v>
+        <v>40178</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>6</v>
@@ -3408,12 +3408,12 @@
         <v>32</v>
       </c>
       <c r="D204">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>41274</v>
+        <v>40268</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>6</v>
@@ -3422,29 +3422,29 @@
         <v>32</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>41912</v>
+        <v>40298</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>42034</v>
+        <v>40543</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>32</v>
@@ -3455,24 +3455,24 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>42062</v>
+        <v>40633</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>42185</v>
+        <v>40694</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>32</v>
@@ -3483,10 +3483,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>42216</v>
+        <v>40724</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>32</v>
@@ -3497,69 +3497,69 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>42398</v>
+        <v>40753</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43131</v>
+        <v>40968</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43280</v>
+        <v>41060</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>35580</v>
+        <v>41274</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>36038</v>
+        <v>41912</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -3567,13 +3567,13 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>36950</v>
+        <v>42034</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -3581,13 +3581,13 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>38562</v>
+        <v>42062</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -3595,41 +3595,41 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>38929</v>
+        <v>42185</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>39660</v>
+        <v>42216</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>40543</v>
+        <v>42398</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -3637,13 +3637,13 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43007</v>
+        <v>43131</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -3651,11 +3651,13 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>38352</v>
-      </c>
-      <c r="B222" s="1"/>
+        <v>43280</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C222" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -3663,13 +3665,13 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>40543</v>
+        <v>43769</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -3677,27 +3679,27 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>41274</v>
+        <v>35580</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>41670</v>
+        <v>36038</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -3705,13 +3707,13 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43189</v>
+        <v>36950</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -3719,39 +3721,41 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43553</v>
+        <v>38562</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>35369</v>
-      </c>
-      <c r="B228" s="1"/>
+        <v>38929</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C228" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>36160</v>
+        <v>39660</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -3759,13 +3763,13 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>36585</v>
+        <v>40543</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -3773,13 +3777,13 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>36889</v>
+        <v>43007</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -3787,13 +3791,11 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>38898</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>38352</v>
+      </c>
+      <c r="B232" s="1"/>
       <c r="C232" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -3801,13 +3803,13 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>39752</v>
+        <v>40543</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -3815,27 +3817,27 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>39903</v>
+        <v>41274</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>40877</v>
+        <v>41670</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -3843,13 +3845,13 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>40907</v>
+        <v>43189</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D236">
         <v>1</v>
@@ -3857,35 +3859,33 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>41243</v>
+        <v>43553</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>42094</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>35369</v>
+      </c>
+      <c r="B238" s="1"/>
       <c r="C238" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>42643</v>
+        <v>36160</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>4</v>
@@ -3894,12 +3894,12 @@
         <v>35</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>43524</v>
+        <v>36585</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>4</v>
@@ -3913,11 +3913,13 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>34817</v>
-      </c>
-      <c r="B241" s="1"/>
+        <v>36889</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C241" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D241">
         <v>1</v>
@@ -3925,11 +3927,13 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>35734</v>
-      </c>
-      <c r="B242" s="1"/>
+        <v>38898</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C242" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -3937,35 +3941,41 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>35795</v>
-      </c>
-      <c r="B243" s="1"/>
+        <v>39752</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C243" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>35825</v>
-      </c>
-      <c r="B244" s="1"/>
+        <v>39903</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C244" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D244">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>35885</v>
-      </c>
-      <c r="B245" s="1"/>
+        <v>40877</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C245" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -3973,11 +3983,13 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>35944</v>
-      </c>
-      <c r="B246" s="1"/>
+        <v>40907</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C246" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D246">
         <v>1</v>
@@ -3985,13 +3997,13 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>36433</v>
+        <v>41243</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -3999,41 +4011,41 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>36644</v>
+        <v>42094</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D248">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>36830</v>
+        <v>42643</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D249">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>37042</v>
+        <v>43524</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D250">
         <v>1</v>
@@ -4041,11 +4053,9 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>37225</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>34817</v>
+      </c>
+      <c r="B251" s="1"/>
       <c r="C251" s="1" t="s">
         <v>36</v>
       </c>
@@ -4055,53 +4065,45 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>37376</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>35734</v>
+      </c>
+      <c r="B252" s="1"/>
       <c r="C252" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>37529</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>35795</v>
+      </c>
+      <c r="B253" s="1"/>
       <c r="C253" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D253">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>37771</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>35825</v>
+      </c>
+      <c r="B254" s="1"/>
       <c r="C254" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>37925</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>35885</v>
+      </c>
+      <c r="B255" s="1"/>
       <c r="C255" s="1" t="s">
         <v>36</v>
       </c>
@@ -4111,11 +4113,9 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>38352</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>35944</v>
+      </c>
+      <c r="B256" s="1"/>
       <c r="C256" s="1" t="s">
         <v>36</v>
       </c>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>38929</v>
+        <v>36433</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>4</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>40268</v>
+        <v>36644</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>4</v>
@@ -4148,12 +4148,12 @@
         <v>36</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>40662</v>
+        <v>36830</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>4</v>
@@ -4162,12 +4162,12 @@
         <v>36</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>42886</v>
+        <v>37042</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>4</v>
@@ -4176,12 +4176,12 @@
         <v>36</v>
       </c>
       <c r="D260">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>43616</v>
+        <v>37225</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>4</v>
@@ -4195,41 +4195,41 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>39903</v>
+        <v>37376</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>39994</v>
+        <v>37529</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>40421</v>
+        <v>37771</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D264">
         <v>1</v>
@@ -4237,27 +4237,27 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>40512</v>
+        <v>37925</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D265">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>40602</v>
+        <v>38352</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D266">
         <v>1</v>
@@ -4265,13 +4265,13 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>40907</v>
+        <v>38929</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -4279,13 +4279,13 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>40939</v>
+        <v>40268</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D268">
         <v>1</v>
@@ -4293,13 +4293,13 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>41820</v>
+        <v>40662</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -4307,27 +4307,27 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>42004</v>
+        <v>42886</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>42185</v>
+        <v>43616</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -4335,11 +4335,13 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>33998</v>
-      </c>
-      <c r="B272" s="1"/>
+        <v>39903</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C272" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D272">
         <v>1</v>
@@ -4347,11 +4349,13 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>34242</v>
-      </c>
-      <c r="B273" s="1"/>
+        <v>39994</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C273" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -4359,11 +4363,13 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>35062</v>
-      </c>
-      <c r="B274" s="1"/>
+        <v>40421</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C274" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -4371,27 +4377,27 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>39416</v>
+        <v>40512</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>40816</v>
+        <v>40602</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -4399,13 +4405,13 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>43343</v>
+        <v>40907</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D277">
         <v>1</v>
@@ -4413,13 +4419,13 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>36098</v>
+        <v>40939</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -4427,13 +4433,13 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>38411</v>
+        <v>41820</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D279">
         <v>1</v>
@@ -4441,25 +4447,27 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>39113</v>
+        <v>42004</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D280">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>34059</v>
-      </c>
-      <c r="B281" s="1"/>
+        <v>42185</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C281" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -4467,13 +4475,13 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>38198</v>
+        <v>43798</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -4481,13 +4489,11 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>39021</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>33998</v>
+      </c>
+      <c r="B283" s="1"/>
       <c r="C283" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -4495,13 +4501,11 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>40816</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>34242</v>
+      </c>
+      <c r="B284" s="1"/>
       <c r="C284" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -4509,13 +4513,11 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>40907</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>35062</v>
+      </c>
+      <c r="B285" s="1"/>
       <c r="C285" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -4523,13 +4525,13 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>40939</v>
+        <v>39416</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D286">
         <v>1</v>
@@ -4537,13 +4539,13 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>41486</v>
+        <v>40816</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -4551,13 +4553,13 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>42004</v>
+        <v>43343</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -4565,13 +4567,13 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>43039</v>
+        <v>36098</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -4579,11 +4581,13 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>35338</v>
-      </c>
-      <c r="B290" s="1"/>
+        <v>38411</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C290" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -4591,27 +4595,25 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>37833</v>
+        <v>39113</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D291">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>41425</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>34059</v>
+      </c>
+      <c r="B292" s="1"/>
       <c r="C292" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D292">
         <v>1</v>
@@ -4619,13 +4621,13 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>43039</v>
+        <v>38198</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -4633,13 +4635,13 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>36950</v>
+        <v>39021</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -4647,13 +4649,13 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>37225</v>
+        <v>40816</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D295">
         <v>1</v>
@@ -4661,13 +4663,13 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>37376</v>
+        <v>40907</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -4675,13 +4677,13 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>39202</v>
+        <v>40939</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -4689,13 +4691,13 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>40574</v>
+        <v>41486</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D298">
         <v>1</v>
@@ -4703,13 +4705,13 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>42277</v>
+        <v>42004</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -4717,13 +4719,13 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>39478</v>
+        <v>43039</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -4731,13 +4733,11 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>40512</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>35338</v>
+      </c>
+      <c r="B301" s="1"/>
       <c r="C301" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D301">
         <v>1</v>
@@ -4745,11 +4745,13 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>34850</v>
-      </c>
-      <c r="B302" s="1"/>
+        <v>37833</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C302" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -4757,11 +4759,13 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>35734</v>
-      </c>
-      <c r="B303" s="1"/>
+        <v>41425</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C303" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D303">
         <v>1</v>
@@ -4769,63 +4773,69 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>35762</v>
-      </c>
-      <c r="B304" s="1"/>
+        <v>43039</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C304" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D304">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>35795</v>
-      </c>
-      <c r="B305" s="1"/>
+        <v>36950</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C305" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D305">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>35853</v>
-      </c>
-      <c r="B306" s="1"/>
+        <v>37225</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C306" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D306">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>36189</v>
+        <v>37376</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D307">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>36494</v>
+        <v>39202</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D308">
         <v>1</v>
@@ -4833,13 +4843,13 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>37225</v>
+        <v>40574</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -4847,13 +4857,13 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>37468</v>
+        <v>42277</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -4861,13 +4871,13 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>38562</v>
+        <v>39478</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -4875,13 +4885,13 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>41180</v>
+        <v>40512</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -4889,11 +4899,9 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>42277</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>34850</v>
+      </c>
+      <c r="B313" s="1"/>
       <c r="C313" s="1" t="s">
         <v>44</v>
       </c>
@@ -4903,11 +4911,9 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>42613</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>35734</v>
+      </c>
+      <c r="B314" s="1"/>
       <c r="C314" s="1" t="s">
         <v>44</v>
       </c>
@@ -4917,63 +4923,63 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>37376</v>
+        <v>35762</v>
       </c>
       <c r="B315" s="1"/>
       <c r="C315" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D315">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>39294</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>35795</v>
+      </c>
+      <c r="B316" s="1"/>
       <c r="C316" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D316">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>40753</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>35853</v>
+      </c>
+      <c r="B317" s="1"/>
       <c r="C317" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D317">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>36068</v>
-      </c>
-      <c r="B318" s="1"/>
+        <v>36189</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C318" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D318">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>36738</v>
-      </c>
-      <c r="B319" s="1"/>
+        <v>36494</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C319" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D319">
         <v>1</v>
@@ -4981,11 +4987,13 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>37042</v>
-      </c>
-      <c r="B320" s="1"/>
+        <v>37225</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C320" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -4993,11 +5001,13 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>37771</v>
-      </c>
-      <c r="B321" s="1"/>
+        <v>37468</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C321" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -5005,23 +5015,27 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>38138</v>
-      </c>
-      <c r="B322" s="1"/>
+        <v>38562</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C322" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D322">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>39051</v>
-      </c>
-      <c r="B323" s="1"/>
+        <v>41180</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C323" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -5029,13 +5043,13 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>39386</v>
+        <v>42277</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D324">
         <v>1</v>
@@ -5043,13 +5057,13 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>40543</v>
+        <v>42613</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D325">
         <v>1</v>
@@ -5057,13 +5071,11 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>40877</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>37376</v>
+      </c>
+      <c r="B326" s="1"/>
       <c r="C326" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -5071,13 +5083,13 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>42062</v>
+        <v>39294</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D327">
         <v>1</v>
@@ -5085,13 +5097,13 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>42429</v>
+        <v>40753</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D328">
         <v>1</v>
@@ -5099,11 +5111,13 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>36707</v>
-      </c>
-      <c r="B329" s="1"/>
+        <v>43921</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C329" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D329">
         <v>1</v>
@@ -5111,11 +5125,11 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>37162</v>
+        <v>36068</v>
       </c>
       <c r="B330" s="1"/>
       <c r="C330" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D330">
         <v>1</v>
@@ -5123,11 +5137,11 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>37376</v>
+        <v>36738</v>
       </c>
       <c r="B331" s="1"/>
       <c r="C331" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D331">
         <v>1</v>
@@ -5135,11 +5149,11 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>38929</v>
+        <v>37042</v>
       </c>
       <c r="B332" s="1"/>
       <c r="C332" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D332">
         <v>1</v>
@@ -5147,11 +5161,11 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>38989</v>
+        <v>37771</v>
       </c>
       <c r="B333" s="1"/>
       <c r="C333" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D333">
         <v>1</v>
@@ -5159,27 +5173,23 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>39416</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>38138</v>
+      </c>
+      <c r="B334" s="1"/>
       <c r="C334" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D334">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>39689</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>39051</v>
+      </c>
+      <c r="B335" s="1"/>
       <c r="C335" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D335">
         <v>1</v>
@@ -5187,13 +5197,13 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>40178</v>
+        <v>39386</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D336">
         <v>1</v>
@@ -5201,13 +5211,13 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>41607</v>
+        <v>40543</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D337">
         <v>1</v>
@@ -5215,13 +5225,13 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>39813</v>
+        <v>40877</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D338">
         <v>1</v>
@@ -5229,13 +5239,13 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>40451</v>
+        <v>42062</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D339">
         <v>1</v>
@@ -5243,13 +5253,13 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>43465</v>
+        <v>42429</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D340">
         <v>1</v>
@@ -5257,11 +5267,11 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>37376</v>
+        <v>36707</v>
       </c>
       <c r="B341" s="1"/>
       <c r="C341" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D341">
         <v>1</v>
@@ -5269,11 +5279,11 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>37680</v>
+        <v>37162</v>
       </c>
       <c r="B342" s="1"/>
       <c r="C342" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D342">
         <v>1</v>
@@ -5281,11 +5291,11 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>38044</v>
+        <v>37376</v>
       </c>
       <c r="B343" s="1"/>
       <c r="C343" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D343">
         <v>1</v>
@@ -5293,11 +5303,11 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>38716</v>
+        <v>38929</v>
       </c>
       <c r="B344" s="1"/>
       <c r="C344" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D344">
         <v>1</v>
@@ -5305,13 +5315,11 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>39478</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>38989</v>
+      </c>
+      <c r="B345" s="1"/>
       <c r="C345" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D345">
         <v>1</v>
@@ -5319,13 +5327,13 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>39752</v>
+        <v>39416</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D346">
         <v>1</v>
@@ -5333,13 +5341,13 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>39871</v>
+        <v>39689</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D347">
         <v>1</v>
@@ -5347,27 +5355,27 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>41759</v>
+        <v>40178</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D348">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>43189</v>
+        <v>41607</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D349">
         <v>1</v>
@@ -5375,11 +5383,13 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>37498</v>
-      </c>
-      <c r="B350" s="1"/>
+        <v>43769</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C350" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D350">
         <v>1</v>
@@ -5387,11 +5397,13 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>38198</v>
-      </c>
-      <c r="B351" s="1"/>
+        <v>43798</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C351" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D351">
         <v>1</v>
@@ -5399,55 +5411,55 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>39233</v>
+        <v>43889</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D352">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>39752</v>
+        <v>43921</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D353">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>39780</v>
+        <v>39813</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D354">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>39871</v>
+        <v>40451</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D355">
         <v>1</v>
@@ -5455,13 +5467,13 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>39994</v>
+        <v>43465</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D356">
         <v>1</v>
@@ -5469,13 +5481,13 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>40543</v>
+        <v>43980</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D357">
         <v>1</v>
@@ -5483,27 +5495,23 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>41060</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>37376</v>
+      </c>
+      <c r="B358" s="1"/>
       <c r="C358" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D358">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>41243</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>37680</v>
+      </c>
+      <c r="B359" s="1"/>
       <c r="C359" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D359">
         <v>1</v>
@@ -5511,13 +5519,11 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>41453</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>38044</v>
+      </c>
+      <c r="B360" s="1"/>
       <c r="C360" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D360">
         <v>1</v>
@@ -5525,13 +5531,11 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>41789</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>38716</v>
+      </c>
+      <c r="B361" s="1"/>
       <c r="C361" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D361">
         <v>1</v>
@@ -5539,13 +5543,13 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>43371</v>
+        <v>39478</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D362">
         <v>1</v>
@@ -5553,13 +5557,13 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>38595</v>
+        <v>39752</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D363">
         <v>1</v>
@@ -5567,37 +5571,41 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>40268</v>
+        <v>39871</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D364">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>35216</v>
-      </c>
-      <c r="B365" s="1"/>
+        <v>41759</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C365" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D365">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>36250</v>
-      </c>
-      <c r="B366" s="1"/>
+        <v>43189</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C366" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D366">
         <v>1</v>
@@ -5605,13 +5613,13 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>40907</v>
+        <v>43889</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D367">
         <v>1</v>
@@ -5619,13 +5627,11 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="2">
-        <v>41305</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>37498</v>
+      </c>
+      <c r="B368" s="1"/>
       <c r="C368" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D368">
         <v>1</v>
@@ -5633,13 +5639,11 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="2">
-        <v>42674</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>38198</v>
+      </c>
+      <c r="B369" s="1"/>
       <c r="C369" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D369">
         <v>1</v>
@@ -5647,11 +5651,13 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="2">
-        <v>34758</v>
-      </c>
-      <c r="B370" s="1"/>
+        <v>39233</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C370" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D370">
         <v>1</v>
@@ -5659,13 +5665,13 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="2">
-        <v>36616</v>
+        <v>39752</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D371">
         <v>1</v>
@@ -5673,13 +5679,13 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="2">
-        <v>37315</v>
+        <v>39780</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D372">
         <v>2</v>
@@ -5687,13 +5693,13 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="2">
-        <v>38383</v>
+        <v>39871</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D373">
         <v>1</v>
@@ -5701,13 +5707,13 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="2">
-        <v>39386</v>
+        <v>39994</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D374">
         <v>1</v>
@@ -5715,13 +5721,13 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="2">
-        <v>40178</v>
+        <v>40543</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D375">
         <v>1</v>
@@ -5729,37 +5735,41 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="2">
-        <v>41639</v>
+        <v>41060</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D376">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="2">
-        <v>34698</v>
-      </c>
-      <c r="B377" s="1"/>
+        <v>41243</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C377" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D377">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="2">
-        <v>35795</v>
-      </c>
-      <c r="B378" s="1"/>
+        <v>41453</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C378" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D378">
         <v>1</v>
@@ -5767,11 +5777,13 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="2">
-        <v>35915</v>
-      </c>
-      <c r="B379" s="1"/>
+        <v>41789</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C379" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D379">
         <v>1</v>
@@ -5779,11 +5791,13 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="2">
-        <v>36007</v>
-      </c>
-      <c r="B380" s="1"/>
+        <v>43371</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C380" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D380">
         <v>1</v>
@@ -5791,25 +5805,27 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="2">
-        <v>36068</v>
-      </c>
-      <c r="B381" s="1"/>
+        <v>43889</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C381" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D381">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="2">
-        <v>36494</v>
+        <v>38595</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D382">
         <v>1</v>
@@ -5817,27 +5833,25 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="2">
-        <v>37498</v>
+        <v>40268</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D383">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="2">
-        <v>37925</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>35216</v>
+      </c>
+      <c r="B384" s="1"/>
       <c r="C384" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D384">
         <v>1</v>
@@ -5845,13 +5859,11 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="2">
-        <v>40056</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>36250</v>
+      </c>
+      <c r="B385" s="1"/>
       <c r="C385" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D385">
         <v>1</v>
@@ -5859,13 +5871,13 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2">
-        <v>41243</v>
+        <v>40907</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D386">
         <v>1</v>
@@ -5873,13 +5885,13 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="2">
-        <v>42062</v>
+        <v>41305</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D387">
         <v>1</v>
@@ -5887,13 +5899,13 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="2">
-        <v>42643</v>
+        <v>42674</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D388">
         <v>1</v>
@@ -5901,13 +5913,11 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="2">
-        <v>40907</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>34758</v>
+      </c>
+      <c r="B389" s="1"/>
       <c r="C389" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D389">
         <v>1</v>
@@ -5915,13 +5925,13 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="2">
-        <v>40939</v>
+        <v>36616</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D390">
         <v>1</v>
@@ -5929,27 +5939,27 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="2">
-        <v>41607</v>
+        <v>37315</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D391">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="2">
-        <v>42338</v>
+        <v>38383</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D392">
         <v>1</v>
@@ -5957,11 +5967,13 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="2">
-        <v>30435</v>
-      </c>
-      <c r="B393" s="1"/>
+        <v>39386</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C393" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D393">
         <v>1</v>
@@ -5969,11 +5981,13 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="2">
-        <v>31744</v>
-      </c>
-      <c r="B394" s="1"/>
+        <v>40178</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C394" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D394">
         <v>1</v>
@@ -5981,11 +5995,13 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="2">
-        <v>33269</v>
-      </c>
-      <c r="B395" s="1"/>
+        <v>41639</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C395" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D395">
         <v>1</v>
@@ -5993,13 +6009,13 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="2">
-        <v>34698</v>
+        <v>43921</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D396">
         <v>1</v>
@@ -6007,27 +6023,23 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="2">
-        <v>35095</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>34698</v>
+      </c>
+      <c r="B397" s="1"/>
       <c r="C397" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D397">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="2">
-        <v>40816</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>35795</v>
+      </c>
+      <c r="B398" s="1"/>
       <c r="C398" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D398">
         <v>1</v>
@@ -6035,11 +6047,11 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="2">
-        <v>36950</v>
+        <v>35915</v>
       </c>
       <c r="B399" s="1"/>
       <c r="C399" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D399">
         <v>1</v>
@@ -6047,11 +6059,11 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="2">
-        <v>38321</v>
+        <v>36007</v>
       </c>
       <c r="B400" s="1"/>
       <c r="C400" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D400">
         <v>1</v>
@@ -6059,25 +6071,25 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="2">
-        <v>38989</v>
+        <v>36068</v>
       </c>
       <c r="B401" s="1"/>
       <c r="C401" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D401">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="2">
-        <v>39113</v>
+        <v>36494</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D402">
         <v>1</v>
@@ -6085,13 +6097,13 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="2">
-        <v>40633</v>
+        <v>37498</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D403">
         <v>1</v>
@@ -6099,13 +6111,13 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="2">
-        <v>40753</v>
+        <v>37925</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D404">
         <v>1</v>
@@ -6113,13 +6125,13 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="2">
-        <v>42062</v>
+        <v>40056</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D405">
         <v>1</v>
@@ -6127,13 +6139,13 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="2">
-        <v>42338</v>
+        <v>41243</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D406">
         <v>1</v>
@@ -6141,41 +6153,41 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="2">
-        <v>42429</v>
+        <v>42062</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D407">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="2">
-        <v>42886</v>
+        <v>42643</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="2">
-        <v>43069</v>
+        <v>43921</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D409">
         <v>1</v>
@@ -6183,11 +6195,13 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="2">
-        <v>37225</v>
-      </c>
-      <c r="B410" s="1"/>
+        <v>40907</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C410" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -6195,13 +6209,13 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="2">
-        <v>39507</v>
+        <v>40939</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D411">
         <v>1</v>
@@ -6209,27 +6223,27 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="2">
-        <v>40329</v>
+        <v>41607</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D412">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="2">
-        <v>41121</v>
+        <v>42338</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D413">
         <v>1</v>
@@ -6237,13 +6251,11 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="2">
-        <v>43585</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>30435</v>
+      </c>
+      <c r="B414" s="1"/>
       <c r="C414" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D414">
         <v>1</v>
@@ -6251,13 +6263,11 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="2">
-        <v>36677</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>31744</v>
+      </c>
+      <c r="B415" s="1"/>
       <c r="C415" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -6265,13 +6275,11 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="2">
-        <v>36707</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>33269</v>
+      </c>
+      <c r="B416" s="1"/>
       <c r="C416" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D416">
         <v>1</v>
@@ -6279,13 +6287,13 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2">
-        <v>36860</v>
+        <v>34698</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D417">
         <v>1</v>
@@ -6293,13 +6301,13 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="2">
-        <v>38168</v>
+        <v>35095</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D418">
         <v>1</v>
@@ -6307,13 +6315,13 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="2">
-        <v>39051</v>
+        <v>40816</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D419">
         <v>1</v>
@@ -6321,27 +6329,23 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="2">
-        <v>39660</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>36950</v>
+      </c>
+      <c r="B420" s="1"/>
       <c r="C420" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D420">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="2">
-        <v>40786</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>38321</v>
+      </c>
+      <c r="B421" s="1"/>
       <c r="C421" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D421">
         <v>1</v>
@@ -6349,13 +6353,11 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="2">
-        <v>41516</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>38989</v>
+      </c>
+      <c r="B422" s="1"/>
       <c r="C422" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D422">
         <v>1</v>
@@ -6363,11 +6365,13 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="2">
-        <v>34850</v>
-      </c>
-      <c r="B423" s="1"/>
+        <v>39113</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C423" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D423">
         <v>1</v>
@@ -6375,11 +6379,13 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="2">
-        <v>35489</v>
-      </c>
-      <c r="B424" s="1"/>
+        <v>40633</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C424" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D424">
         <v>1</v>
@@ -6387,13 +6393,13 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="2">
-        <v>37741</v>
+        <v>40753</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D425">
         <v>1</v>
@@ -6401,13 +6407,13 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="2">
-        <v>38383</v>
+        <v>42062</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D426">
         <v>1</v>
@@ -6415,13 +6421,13 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="2">
-        <v>40512</v>
+        <v>42338</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D427">
         <v>1</v>
@@ -6429,27 +6435,27 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="2">
-        <v>41121</v>
+        <v>42429</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D428">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="2">
-        <v>41425</v>
+        <v>42886</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D429">
         <v>2</v>
@@ -6457,13 +6463,13 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="2">
-        <v>41789</v>
+        <v>43069</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D430">
         <v>1</v>
@@ -6471,13 +6477,13 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="2">
-        <v>43585</v>
+        <v>43921</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D431">
         <v>1</v>
@@ -6485,51 +6491,53 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="2">
-        <v>35976</v>
+        <v>37225</v>
       </c>
       <c r="B432" s="1"/>
       <c r="C432" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D432">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="2">
-        <v>36007</v>
-      </c>
-      <c r="B433" s="1"/>
+        <v>39507</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C433" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="2">
-        <v>36098</v>
+        <v>40329</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D434">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="2">
-        <v>36160</v>
+        <v>41121</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D435">
         <v>1</v>
@@ -6537,41 +6545,41 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="2">
-        <v>36189</v>
+        <v>43585</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D436">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="2">
-        <v>36525</v>
+        <v>36677</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D437">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="2">
-        <v>37621</v>
+        <v>36707</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D438">
         <v>1</v>
@@ -6579,13 +6587,13 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2">
-        <v>38321</v>
+        <v>36860</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D439">
         <v>1</v>
@@ -6593,13 +6601,13 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2">
-        <v>39598</v>
+        <v>38168</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D440">
         <v>1</v>
@@ -6607,41 +6615,41 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="2">
-        <v>39752</v>
+        <v>39051</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D441">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="2">
-        <v>39780</v>
+        <v>39660</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2">
-        <v>39813</v>
+        <v>40786</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D443">
         <v>1</v>
@@ -6649,13 +6657,13 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="2">
-        <v>40056</v>
+        <v>41516</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D444">
         <v>1</v>
@@ -6663,13 +6671,11 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="2">
-        <v>42674</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>34850</v>
+      </c>
+      <c r="B445" s="1"/>
       <c r="C445" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D445">
         <v>1</v>
@@ -6677,13 +6683,11 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="2">
-        <v>43524</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>35489</v>
+      </c>
+      <c r="B446" s="1"/>
       <c r="C446" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D446">
         <v>1</v>
@@ -6691,25 +6695,27 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="2">
-        <v>35185</v>
-      </c>
-      <c r="B447" s="1"/>
+        <v>37741</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C447" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D447">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="2">
-        <v>36341</v>
+        <v>38383</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D448">
         <v>1</v>
@@ -6717,13 +6723,13 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="2">
-        <v>36677</v>
+        <v>40512</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D449">
         <v>1</v>
@@ -6731,13 +6737,13 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="2">
-        <v>39171</v>
+        <v>41121</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D450">
         <v>1</v>
@@ -6745,27 +6751,27 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="2">
-        <v>42398</v>
+        <v>41425</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D451">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2">
-        <v>43404</v>
+        <v>41789</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D452">
         <v>1</v>
@@ -6773,11 +6779,13 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2">
-        <v>34120</v>
-      </c>
-      <c r="B453" s="1"/>
+        <v>43585</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C453" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D453">
         <v>1</v>
@@ -6785,41 +6793,37 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2">
-        <v>36160</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>35976</v>
+      </c>
+      <c r="B454" s="1"/>
       <c r="C454" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="2">
-        <v>38533</v>
-      </c>
-      <c r="B455" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>36007</v>
+      </c>
+      <c r="B455" s="1"/>
       <c r="C455" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="2">
-        <v>39843</v>
+        <v>36098</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D456">
         <v>1</v>
@@ -6827,55 +6831,55 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="2">
-        <v>40298</v>
+        <v>36160</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="2">
-        <v>40512</v>
+        <v>36189</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="2">
-        <v>40633</v>
+        <v>36525</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D459">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="2">
-        <v>40907</v>
+        <v>37621</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D460">
         <v>1</v>
@@ -6883,27 +6887,27 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="2">
-        <v>40939</v>
+        <v>38321</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="2">
-        <v>41547</v>
+        <v>39598</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D462">
         <v>1</v>
@@ -6911,27 +6915,27 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="2">
-        <v>41670</v>
+        <v>39752</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D463">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="2">
-        <v>42277</v>
+        <v>39780</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D464">
         <v>1</v>
@@ -6939,27 +6943,27 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="2">
-        <v>43007</v>
+        <v>39813</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="2">
-        <v>43553</v>
+        <v>40056</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D466">
         <v>1</v>
@@ -6967,11 +6971,13 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="2">
-        <v>36980</v>
-      </c>
-      <c r="B467" s="1"/>
+        <v>42674</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C467" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D467">
         <v>1</v>
@@ -6979,11 +6985,13 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="2">
-        <v>37407</v>
-      </c>
-      <c r="B468" s="1"/>
+        <v>43524</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C468" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D468">
         <v>1</v>
@@ -6991,25 +6999,25 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="2">
-        <v>37833</v>
+        <v>35185</v>
       </c>
       <c r="B469" s="1"/>
       <c r="C469" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D469">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="2">
-        <v>39171</v>
+        <v>36341</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D470">
         <v>1</v>
@@ -7017,13 +7025,13 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="2">
-        <v>40389</v>
+        <v>36677</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D471">
         <v>1</v>
@@ -7031,27 +7039,27 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="2">
-        <v>42916</v>
+        <v>39171</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="2">
-        <v>42978</v>
+        <v>42398</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D473">
         <v>1</v>
@@ -7059,11 +7067,13 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="2">
-        <v>35944</v>
-      </c>
-      <c r="B474" s="1"/>
+        <v>43404</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C474" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D474">
         <v>1</v>
@@ -7071,23 +7081,25 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="2">
-        <v>36098</v>
+        <v>34120</v>
       </c>
       <c r="B475" s="1"/>
       <c r="C475" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D475">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="2">
-        <v>37071</v>
-      </c>
-      <c r="B476" s="1"/>
+        <v>36160</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C476" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D476">
         <v>1</v>
@@ -7095,11 +7107,13 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="2">
-        <v>37376</v>
-      </c>
-      <c r="B477" s="1"/>
+        <v>38533</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C477" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D477">
         <v>1</v>
@@ -7107,11 +7121,13 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="2">
-        <v>37680</v>
-      </c>
-      <c r="B478" s="1"/>
+        <v>39843</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C478" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D478">
         <v>1</v>
@@ -7119,23 +7135,27 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="2">
-        <v>37894</v>
-      </c>
-      <c r="B479" s="1"/>
+        <v>40298</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C479" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D479">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="2">
-        <v>38260</v>
-      </c>
-      <c r="B480" s="1"/>
+        <v>40512</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C480" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D480">
         <v>1</v>
@@ -7143,11 +7163,13 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="2">
-        <v>38625</v>
-      </c>
-      <c r="B481" s="1"/>
+        <v>40633</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C481" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D481">
         <v>2</v>
@@ -7155,27 +7177,27 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="2">
-        <v>39752</v>
+        <v>40907</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="2">
-        <v>41789</v>
+        <v>40939</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D483">
         <v>2</v>
@@ -7183,11 +7205,13 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="2">
-        <v>38562</v>
-      </c>
-      <c r="B484" s="1"/>
+        <v>41547</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C484" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D484">
         <v>1</v>
@@ -7195,13 +7219,13 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="2">
-        <v>40633</v>
+        <v>41670</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D485">
         <v>1</v>
@@ -7209,13 +7233,13 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="2">
-        <v>41152</v>
+        <v>42277</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D486">
         <v>1</v>
@@ -7223,27 +7247,27 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="2">
-        <v>41943</v>
+        <v>43007</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D487">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="2">
-        <v>42034</v>
+        <v>43553</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D488">
         <v>1</v>
@@ -7251,13 +7275,11 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="2">
-        <v>43098</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>36980</v>
+      </c>
+      <c r="B489" s="1"/>
       <c r="C489" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D489">
         <v>1</v>
@@ -7265,11 +7287,11 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="2">
-        <v>35976</v>
+        <v>37407</v>
       </c>
       <c r="B490" s="1"/>
       <c r="C490" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D490">
         <v>1</v>
@@ -7277,23 +7299,25 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="2">
-        <v>36038</v>
+        <v>37833</v>
       </c>
       <c r="B491" s="1"/>
       <c r="C491" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D491">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="2">
-        <v>36068</v>
-      </c>
-      <c r="B492" s="1"/>
+        <v>39171</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C492" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D492">
         <v>1</v>
@@ -7301,41 +7325,41 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="2">
-        <v>36189</v>
+        <v>40389</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D493">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="2">
-        <v>36889</v>
+        <v>42916</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D494">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="2">
-        <v>37071</v>
+        <v>42978</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D495">
         <v>1</v>
@@ -7343,13 +7367,11 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="2">
-        <v>37256</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>35944</v>
+      </c>
+      <c r="B496" s="1"/>
       <c r="C496" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D496">
         <v>1</v>
@@ -7357,27 +7379,23 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="2">
-        <v>37468</v>
-      </c>
-      <c r="B497" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>36098</v>
+      </c>
+      <c r="B497" s="1"/>
       <c r="C497" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="2">
-        <v>37621</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>37071</v>
+      </c>
+      <c r="B498" s="1"/>
       <c r="C498" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D498">
         <v>1</v>
@@ -7385,13 +7403,11 @@
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="2">
-        <v>38016</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>37376</v>
+      </c>
+      <c r="B499" s="1"/>
       <c r="C499" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D499">
         <v>1</v>
@@ -7399,27 +7415,23 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="2">
-        <v>38383</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>37680</v>
+      </c>
+      <c r="B500" s="1"/>
       <c r="C500" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="2">
-        <v>38716</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>37894</v>
+      </c>
+      <c r="B501" s="1"/>
       <c r="C501" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D501">
         <v>1</v>
@@ -7427,13 +7439,11 @@
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="2">
-        <v>38989</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>38260</v>
+      </c>
+      <c r="B502" s="1"/>
       <c r="C502" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D502">
         <v>1</v>
@@ -7441,55 +7451,51 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="2">
-        <v>39813</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>38625</v>
+      </c>
+      <c r="B503" s="1"/>
       <c r="C503" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D503">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="2">
-        <v>41759</v>
+        <v>39752</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D504">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="2">
-        <v>42004</v>
+        <v>41789</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D505">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="2">
-        <v>42034</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>38562</v>
+      </c>
+      <c r="B506" s="1"/>
       <c r="C506" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D506">
         <v>1</v>
@@ -7497,25 +7503,27 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="2">
-        <v>43159</v>
+        <v>40633</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="2">
-        <v>38835</v>
-      </c>
-      <c r="B508" s="1"/>
+        <v>41152</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C508" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D508">
         <v>1</v>
@@ -7523,13 +7531,13 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="2">
-        <v>39294</v>
+        <v>41943</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D509">
         <v>1</v>
@@ -7537,13 +7545,13 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="2">
-        <v>42307</v>
+        <v>42034</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D510">
         <v>1</v>
@@ -7551,25 +7559,27 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="2">
-        <v>42429</v>
+        <v>43098</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D511">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="2">
-        <v>34059</v>
-      </c>
-      <c r="B512" s="1"/>
+        <v>43830</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C512" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D512">
         <v>1</v>
@@ -7577,13 +7587,11 @@
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="2">
-        <v>38044</v>
-      </c>
-      <c r="B513" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>35976</v>
+      </c>
+      <c r="B513" s="1"/>
       <c r="C513" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D513">
         <v>1</v>
@@ -7591,25 +7599,23 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="2">
-        <v>34789</v>
-      </c>
-      <c r="B514" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>36038</v>
+      </c>
+      <c r="B514" s="1"/>
       <c r="C514" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D514">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="2">
-        <v>37711</v>
+        <v>36068</v>
       </c>
       <c r="B515" s="1"/>
       <c r="C515" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D515">
         <v>1</v>
@@ -7617,37 +7623,41 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="2">
-        <v>38138</v>
-      </c>
-      <c r="B516" s="1"/>
+        <v>36189</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C516" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D516">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="2">
-        <v>38868</v>
-      </c>
-      <c r="B517" s="1"/>
+        <v>36889</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C517" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D517">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="2">
-        <v>40847</v>
+        <v>37071</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D518">
         <v>1</v>
@@ -7655,13 +7665,13 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="2">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D519">
         <v>1</v>
@@ -7669,13 +7679,13 @@
     </row>
     <row r="520" spans="1:4">
       <c r="A520" s="2">
-        <v>41152</v>
+        <v>37468</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D520">
         <v>1</v>
@@ -7683,13 +7693,13 @@
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="2">
-        <v>41243</v>
+        <v>37621</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D521">
         <v>1</v>
@@ -7697,13 +7707,13 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="2">
-        <v>42551</v>
+        <v>38016</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D522">
         <v>1</v>
@@ -7711,27 +7721,27 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="2">
-        <v>42916</v>
+        <v>38383</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D523">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="2">
-        <v>43644</v>
+        <v>38716</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D524">
         <v>1</v>
@@ -7739,59 +7749,69 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="2">
-        <v>34817</v>
-      </c>
-      <c r="B525" s="1"/>
+        <v>38989</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C525" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="2">
-        <v>35185</v>
-      </c>
-      <c r="B526" s="1"/>
+        <v>39813</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C526" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D526">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="2">
-        <v>36068</v>
-      </c>
-      <c r="B527" s="1"/>
+        <v>41759</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C527" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D527">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="2">
-        <v>37195</v>
-      </c>
-      <c r="B528" s="1"/>
+        <v>42004</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C528" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:4">
       <c r="A529" s="2">
-        <v>37621</v>
-      </c>
-      <c r="B529" s="1"/>
+        <v>42034</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C529" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D529">
         <v>1</v>
@@ -7799,23 +7819,25 @@
     </row>
     <row r="530" spans="1:4">
       <c r="A530" s="2">
-        <v>38077</v>
-      </c>
-      <c r="B530" s="1"/>
+        <v>43159</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C530" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D530">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="2">
-        <v>38352</v>
+        <v>38835</v>
       </c>
       <c r="B531" s="1"/>
       <c r="C531" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D531">
         <v>1</v>
@@ -7823,11 +7845,13 @@
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="2">
-        <v>38716</v>
-      </c>
-      <c r="B532" s="1"/>
+        <v>39294</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C532" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D532">
         <v>1</v>
@@ -7835,13 +7859,13 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="2">
-        <v>39780</v>
+        <v>42307</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D533">
         <v>1</v>
@@ -7849,27 +7873,25 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="2">
-        <v>40907</v>
+        <v>42429</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D534">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:4">
       <c r="A535" s="2">
-        <v>42216</v>
-      </c>
-      <c r="B535" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>34059</v>
+      </c>
+      <c r="B535" s="1"/>
       <c r="C535" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D535">
         <v>1</v>
@@ -7877,11 +7899,13 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536" s="2">
-        <v>34698</v>
-      </c>
-      <c r="B536" s="1"/>
+        <v>38044</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C536" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D536">
         <v>1</v>
@@ -7889,11 +7913,13 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537" s="2">
-        <v>35671</v>
-      </c>
-      <c r="B537" s="1"/>
+        <v>34789</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C537" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D537">
         <v>1</v>
@@ -7901,23 +7927,23 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="2">
-        <v>35734</v>
+        <v>37711</v>
       </c>
       <c r="B538" s="1"/>
       <c r="C538" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D538">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="2">
-        <v>35825</v>
+        <v>38138</v>
       </c>
       <c r="B539" s="1"/>
       <c r="C539" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D539">
         <v>1</v>
@@ -7925,13 +7951,11 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="2">
-        <v>37925</v>
-      </c>
-      <c r="B540" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>38868</v>
+      </c>
+      <c r="B540" s="1"/>
       <c r="C540" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D540">
         <v>1</v>
@@ -7939,13 +7963,13 @@
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="2">
-        <v>38230</v>
+        <v>40847</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D541">
         <v>1</v>
@@ -7953,13 +7977,13 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="2">
-        <v>38989</v>
+        <v>40907</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D542">
         <v>1</v>
@@ -7967,13 +7991,13 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="2">
-        <v>39021</v>
+        <v>41152</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D543">
         <v>1</v>
@@ -7981,11 +8005,13 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="2">
-        <v>36616</v>
-      </c>
-      <c r="B544" s="1"/>
+        <v>41243</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C544" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D544">
         <v>1</v>
@@ -7993,13 +8019,13 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="2">
-        <v>40574</v>
+        <v>42551</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D545">
         <v>1</v>
@@ -8007,27 +8033,27 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="2">
-        <v>41060</v>
+        <v>42916</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D546">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="2">
-        <v>41333</v>
+        <v>43644</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D547">
         <v>1</v>
@@ -8035,13 +8061,11 @@
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="2">
-        <v>41516</v>
-      </c>
-      <c r="B548" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>34817</v>
+      </c>
+      <c r="B548" s="1"/>
       <c r="C548" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D548">
         <v>2</v>
@@ -8049,67 +8073,59 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="2">
-        <v>41639</v>
-      </c>
-      <c r="B549" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>35185</v>
+      </c>
+      <c r="B549" s="1"/>
       <c r="C549" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D549">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="2">
-        <v>35430</v>
+        <v>36068</v>
       </c>
       <c r="B550" s="1"/>
       <c r="C550" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D550">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="2">
-        <v>36644</v>
-      </c>
-      <c r="B551" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>37195</v>
+      </c>
+      <c r="B551" s="1"/>
       <c r="C551" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D551">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="2">
-        <v>36950</v>
-      </c>
-      <c r="B552" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>37621</v>
+      </c>
+      <c r="B552" s="1"/>
       <c r="C552" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D552">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="2">
-        <v>37833</v>
-      </c>
-      <c r="B553" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>38077</v>
+      </c>
+      <c r="B553" s="1"/>
       <c r="C553" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D553">
         <v>1</v>
@@ -8117,13 +8133,11 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="2">
-        <v>37925</v>
-      </c>
-      <c r="B554" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>38352</v>
+      </c>
+      <c r="B554" s="1"/>
       <c r="C554" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D554">
         <v>1</v>
@@ -8131,13 +8145,11 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="2">
-        <v>38230</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>38716</v>
+      </c>
+      <c r="B555" s="1"/>
       <c r="C555" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D555">
         <v>1</v>
@@ -8145,13 +8157,13 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="2">
-        <v>40235</v>
+        <v>39780</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D556">
         <v>1</v>
@@ -8159,13 +8171,13 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="2">
-        <v>41362</v>
+        <v>40907</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D557">
         <v>1</v>
@@ -8173,13 +8185,13 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="2">
-        <v>42580</v>
+        <v>42216</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D558">
         <v>1</v>
@@ -8187,13 +8199,11 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="2">
-        <v>43251</v>
-      </c>
-      <c r="B559" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>34698</v>
+      </c>
+      <c r="B559" s="1"/>
       <c r="C559" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D559">
         <v>1</v>
@@ -8201,13 +8211,11 @@
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="2">
-        <v>43343</v>
-      </c>
-      <c r="B560" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>35671</v>
+      </c>
+      <c r="B560" s="1"/>
       <c r="C560" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D560">
         <v>1</v>
@@ -8215,27 +8223,23 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="2">
-        <v>37103</v>
-      </c>
-      <c r="B561" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>35734</v>
+      </c>
+      <c r="B561" s="1"/>
       <c r="C561" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D561">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="2">
-        <v>37621</v>
-      </c>
-      <c r="B562" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>35825</v>
+      </c>
+      <c r="B562" s="1"/>
       <c r="C562" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D562">
         <v>1</v>
@@ -8243,11 +8247,13 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="2">
-        <v>38198</v>
-      </c>
-      <c r="B563" s="1"/>
+        <v>37925</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C563" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D563">
         <v>1</v>
@@ -8255,11 +8261,13 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="2">
-        <v>38503</v>
-      </c>
-      <c r="B564" s="1"/>
+        <v>38230</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C564" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D564">
         <v>1</v>
@@ -8267,13 +8275,13 @@
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="2">
-        <v>39629</v>
+        <v>38989</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D565">
         <v>1</v>
@@ -8281,13 +8289,13 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="2">
-        <v>39752</v>
+        <v>39021</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D566">
         <v>1</v>
@@ -8295,27 +8303,25 @@
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="2">
-        <v>39871</v>
-      </c>
-      <c r="B567" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>36616</v>
+      </c>
+      <c r="B567" s="1"/>
       <c r="C567" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D567">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="2">
-        <v>40268</v>
+        <v>40574</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D568">
         <v>1</v>
@@ -8323,27 +8329,27 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="2">
-        <v>40329</v>
+        <v>41060</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D569">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="2">
-        <v>40389</v>
+        <v>41333</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D570">
         <v>1</v>
@@ -8351,41 +8357,39 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="2">
-        <v>41274</v>
+        <v>41516</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D571">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="2">
-        <v>41607</v>
+        <v>41639</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D572">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="2">
-        <v>41670</v>
-      </c>
-      <c r="B573" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>35430</v>
+      </c>
+      <c r="B573" s="1"/>
       <c r="C573" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D573">
         <v>1</v>
@@ -8393,13 +8397,13 @@
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="2">
-        <v>41698</v>
+        <v>36644</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D574">
         <v>1</v>
@@ -8407,27 +8411,27 @@
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="2">
-        <v>42004</v>
+        <v>36950</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D575">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="2">
-        <v>42124</v>
+        <v>37833</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D576">
         <v>1</v>
@@ -8435,41 +8439,41 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="2">
-        <v>42277</v>
+        <v>37925</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D577">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="2">
-        <v>42307</v>
+        <v>38230</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D578">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="2">
-        <v>41670</v>
+        <v>40235</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D579">
         <v>1</v>
@@ -8477,13 +8481,13 @@
     </row>
     <row r="580" spans="1:4">
       <c r="A580" s="2">
-        <v>40753</v>
+        <v>41362</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D580">
         <v>1</v>
@@ -8491,11 +8495,13 @@
     </row>
     <row r="581" spans="1:4">
       <c r="A581" s="2">
-        <v>38989</v>
-      </c>
-      <c r="B581" s="1"/>
+        <v>42580</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C581" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D581">
         <v>1</v>
@@ -8503,13 +8509,13 @@
     </row>
     <row r="582" spans="1:4">
       <c r="A582" s="2">
-        <v>40543</v>
+        <v>43251</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D582">
         <v>1</v>
@@ -8517,13 +8523,13 @@
     </row>
     <row r="583" spans="1:4">
       <c r="A583" s="2">
-        <v>43585</v>
+        <v>43343</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D583">
         <v>1</v>
@@ -8531,11 +8537,13 @@
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="2">
-        <v>35033</v>
-      </c>
-      <c r="B584" s="1"/>
+        <v>37103</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C584" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D584">
         <v>1</v>
@@ -8543,27 +8551,25 @@
     </row>
     <row r="585" spans="1:4">
       <c r="A585" s="2">
-        <v>36585</v>
+        <v>37621</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D585">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="2">
-        <v>37771</v>
-      </c>
-      <c r="B586" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>38198</v>
+      </c>
+      <c r="B586" s="1"/>
       <c r="C586" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D586">
         <v>1</v>
@@ -8571,13 +8577,11 @@
     </row>
     <row r="587" spans="1:4">
       <c r="A587" s="2">
-        <v>38595</v>
-      </c>
-      <c r="B587" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>38503</v>
+      </c>
+      <c r="B587" s="1"/>
       <c r="C587" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D587">
         <v>1</v>
@@ -8585,13 +8589,13 @@
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="2">
-        <v>41213</v>
+        <v>39629</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D588">
         <v>1</v>
@@ -8599,13 +8603,13 @@
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="2">
-        <v>41820</v>
+        <v>39752</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D589">
         <v>1</v>
@@ -8613,13 +8617,13 @@
     </row>
     <row r="590" spans="1:4">
       <c r="A590" s="2">
-        <v>42853</v>
+        <v>39871</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D590">
         <v>2</v>
@@ -8627,13 +8631,13 @@
     </row>
     <row r="591" spans="1:4">
       <c r="A591" s="2">
-        <v>43069</v>
+        <v>40268</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D591">
         <v>1</v>
@@ -8641,13 +8645,13 @@
     </row>
     <row r="592" spans="1:4">
       <c r="A592" s="2">
-        <v>42216</v>
+        <v>40329</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D592">
         <v>1</v>
@@ -8655,13 +8659,13 @@
     </row>
     <row r="593" spans="1:4">
       <c r="A593" s="2">
-        <v>43343</v>
+        <v>40389</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D593">
         <v>1</v>
@@ -8669,15 +8673,375 @@
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="2">
+        <v>41274</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4">
+      <c r="A595" s="2">
+        <v>41607</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4">
+      <c r="A596" s="2">
+        <v>41670</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4">
+      <c r="A597" s="2">
+        <v>41698</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4">
+      <c r="A598" s="2">
+        <v>42004</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4">
+      <c r="A599" s="2">
+        <v>42124</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4">
+      <c r="A600" s="2">
+        <v>42277</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D600">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4">
+      <c r="A601" s="2">
+        <v>42307</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D601">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4">
+      <c r="A602" s="2">
+        <v>43738</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4">
+      <c r="A603" s="2">
+        <v>41670</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4">
+      <c r="A604" s="2">
+        <v>40753</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4">
+      <c r="A605" s="2">
+        <v>38989</v>
+      </c>
+      <c r="B605" s="1"/>
+      <c r="C605" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4">
+      <c r="A606" s="2">
+        <v>40543</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4">
+      <c r="A607" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4">
+      <c r="A608" s="2">
+        <v>35033</v>
+      </c>
+      <c r="B608" s="1"/>
+      <c r="C608" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4">
+      <c r="A609" s="2">
+        <v>36585</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D609">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4">
+      <c r="A610" s="2">
+        <v>37771</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4">
+      <c r="A611" s="2">
+        <v>38595</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4">
+      <c r="A612" s="2">
+        <v>41213</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4">
+      <c r="A613" s="2">
+        <v>41820</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4">
+      <c r="A614" s="2">
+        <v>42853</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D614">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4">
+      <c r="A615" s="2">
+        <v>43069</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4">
+      <c r="A616" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4">
+      <c r="A617" s="2">
+        <v>42216</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4">
+      <c r="A618" s="2">
+        <v>43343</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4">
+      <c r="A619" s="2">
         <v>43707</v>
       </c>
-      <c r="B594" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C594" s="1" t="s">
+      <c r="B619" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C619" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D594">
+      <c r="D619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4">
+      <c r="A620" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D620">
         <v>1</v>
       </c>
     </row>
